--- a/main_trans.xlsx
+++ b/main_trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RNN_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9EDE92-BAEC-4E31-AB23-97B161F2B254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49AC218-4AB2-4D07-99A8-B57D1F09B72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dsas12_main_trans_8312_8314" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
   <dimension ref="A1:D3188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/main_trans.xlsx
+++ b/main_trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RNN_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49AC218-4AB2-4D07-99A8-B57D1F09B72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875DE1F1-8F4D-45E7-A930-303EA9500B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3172" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -903,7 +903,7 @@
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
